--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\SVN\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A895775-FAF7-49D7-9DD9-2F4983388624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8E47D-15BB-48AC-AE74-8971C2A84539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -270,6 +270,16 @@
   </si>
   <si>
     <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト更新必要</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -277,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +324,13 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -379,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -663,7 +681,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -971,9 +989,11 @@
       <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7" t="s">
-        <v>44</v>
+      <c r="H12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9">

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\SVN\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8E47D-15BB-48AC-AE74-8971C2A84539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34297F5-3A38-4CE2-B570-7D9F1B7EAE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45840" yWindow="1035" windowWidth="18885" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -279,6 +279,33 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梁（共通修正）</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -287,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,25 +705,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="55.5" customWidth="1"/>
+    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,13 +747,16 @@
         <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -745,10 +776,11 @@
       <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="3"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -768,12 +800,13 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -793,10 +826,11 @@
       <c r="G4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -816,10 +850,11 @@
       <c r="G5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -839,12 +874,13 @@
       <c r="G6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -864,10 +900,11 @@
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1">
+      <c r="H7" s="2"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -887,12 +924,13 @@
       <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -912,12 +950,13 @@
       <c r="G9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1">
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -937,12 +976,13 @@
       <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -962,14 +1002,15 @@
       <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -989,14 +1030,17 @@
       <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1016,12 +1060,15 @@
       <c r="G13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1041,12 +1088,15 @@
       <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1064,8 +1114,9 @@
         <v>38</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34297F5-3A38-4CE2-B570-7D9F1B7EAE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D03A5DE-9FA2-482C-A639-8FA036D0999C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45840" yWindow="1035" windowWidth="18885" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -226,25 +226,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>QAがある。回答したが、未対応。</t>
-    <rPh sb="6" eb="8">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ミタイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コードマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>済</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -265,21 +247,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>▲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウト更新必要</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -306,6 +274,20 @@
     <t>上海</t>
     <rPh sb="0" eb="2">
       <t>シャンハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正中</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,13 +399,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -707,24 +689,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="36.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,16 +727,16 @@
         <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -777,10 +757,10 @@
         <v>33</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -801,12 +781,14 @@
         <v>33</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -823,14 +805,16 @@
         <v>32</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -847,14 +831,16 @@
         <v>32</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" s="6" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -875,12 +861,10 @@
         <v>36</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -901,10 +885,14 @@
         <v>33</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -912,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>34</v>
@@ -925,12 +913,12 @@
         <v>36</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -951,12 +939,12 @@
         <v>36</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -977,12 +965,12 @@
         <v>36</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1003,14 +991,14 @@
         <v>33</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1031,16 +1019,14 @@
         <v>36</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1057,18 +1043,18 @@
         <v>35</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1089,14 +1075,14 @@
         <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>14</v>
       </c>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D03A5DE-9FA2-482C-A639-8FA036D0999C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A948B13-A080-47EA-A4FA-8328A5F7FE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -279,16 +279,6 @@
   </si>
   <si>
     <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正中</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -782,11 +772,9 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
@@ -861,7 +849,9 @@
         <v>36</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10">
@@ -886,11 +876,9 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="5">
@@ -994,9 +982,7 @@
       <c r="I11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1">
       <c r="A12" s="5">

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A948B13-A080-47EA-A4FA-8328A5F7FE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571836C-E25F-47EE-81C6-77620115067F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42225" yWindow="1755" windowWidth="18885" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●：レビュー完了</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△：レビュー待ち</t>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鄒</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -286,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -396,6 +414,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -677,24 +701,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -750,7 +776,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -776,7 +802,7 @@
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -796,13 +822,15 @@
       <c r="G4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="I4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -828,7 +856,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1">
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -854,7 +882,7 @@
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -880,7 +908,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -906,7 +934,7 @@
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -932,7 +960,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1">
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -958,7 +986,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -984,7 +1012,7 @@
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1012,7 +1040,7 @@
       </c>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1040,7 +1068,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1068,7 +1096,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1089,6 +1117,16 @@
       <c r="H15" s="3"/>
       <c r="I15" s="5"/>
       <c r="J15" s="2"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I18" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571836C-E25F-47EE-81C6-77620115067F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEBECC6-A515-4A07-9FBB-967041F56202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42225" yWindow="1755" windowWidth="18885" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -304,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +349,19 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -370,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -393,11 +406,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -407,19 +429,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -704,23 +728,23 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="36.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -773,10 +797,12 @@
         <v>33</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -797,12 +823,12 @@
         <v>33</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -819,18 +845,18 @@
         <v>32</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -847,16 +873,16 @@
         <v>32</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" s="6" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -873,16 +899,16 @@
         <v>32</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -899,16 +925,16 @@
         <v>33</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -925,16 +951,16 @@
         <v>32</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -951,16 +977,16 @@
         <v>32</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -977,16 +1003,16 @@
         <v>36</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1003,16 +1029,16 @@
         <v>33</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1029,18 +1055,18 @@
         <v>33</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1057,18 +1083,18 @@
         <v>35</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1091,12 +1117,12 @@
       <c r="H14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1118,13 +1144,13 @@
       <c r="I15" s="5"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="9:9">
       <c r="I17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I18" s="13" t="s">
+    <row r="18" spans="9:9">
+      <c r="I18" s="11" t="s">
         <v>51</v>
       </c>
     </row>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEBECC6-A515-4A07-9FBB-967041F56202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEEE83-37F4-49A0-AFAD-7495D7230EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -275,10 +275,6 @@
     <rPh sb="0" eb="2">
       <t>シャンハイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -727,9 +723,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -849,7 +843,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>45</v>
@@ -904,7 +898,7 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -956,7 +950,7 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J8" s="9"/>
     </row>
@@ -982,7 +976,7 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -1146,12 +1140,12 @@
     </row>
     <row r="17" spans="9:9">
       <c r="I17" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEEE83-37F4-49A0-AFAD-7495D7230EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDA3FFD-138C-401C-A6CB-4242CA9408DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>鄒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>章</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -300,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +334,6 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -415,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -425,21 +422,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -791,7 +787,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="2"/>
@@ -816,11 +812,13 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
@@ -839,13 +837,13 @@
         <v>32</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="2"/>
@@ -867,11 +865,13 @@
         <v>32</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J5" s="2"/>
@@ -893,14 +893,16 @@
         <v>32</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="9"/>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
@@ -919,14 +921,16 @@
         <v>33</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="9"/>
+      <c r="H7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="5">
@@ -945,14 +949,16 @@
         <v>32</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="9"/>
+      <c r="H8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1">
       <c r="A9" s="5">
@@ -971,14 +977,14 @@
         <v>32</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1">
       <c r="A10" s="5">
@@ -997,14 +1003,14 @@
         <v>36</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
@@ -1023,14 +1029,16 @@
         <v>33</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="9"/>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1">
       <c r="A12" s="5">
@@ -1049,16 +1057,16 @@
         <v>33</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="I12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
@@ -1077,13 +1085,13 @@
         <v>35</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="2"/>
@@ -1111,7 +1119,7 @@
       <c r="H14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="2"/>
@@ -1139,12 +1147,12 @@
       <c r="J15" s="2"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="9:9">
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>50</v>
       </c>
     </row>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDA3FFD-138C-401C-A6CB-4242CA9408DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B892DAC-0233-432A-9DD0-7ECB166E38A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -812,9 +812,7 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="7" t="s">
         <v>45</v>
       </c>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B892DAC-0233-432A-9DD0-7ECB166E38A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260171ED-E1A3-4EA9-85BB-CEFB0E899856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -812,7 +812,9 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="I3" s="7" t="s">
         <v>45</v>
       </c>

--- a/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260171ED-E1A3-4EA9-85BB-CEFB0E899856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F662E-B227-4592-9E7A-9CFEFED7665A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -297,6 +297,16 @@
   </si>
   <si>
     <t>章</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発進捗</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンチョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -304,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,24 +727,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="55.5" customWidth="1"/>
+    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="11" max="11" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75">
+    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,13 +772,16 @@
         <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -787,12 +802,13 @@
         <v>33</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="3"/>
+      <c r="J2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -815,12 +831,13 @@
       <c r="H3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" s="5"/>
+      <c r="J3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -843,12 +860,13 @@
       <c r="H4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="12"/>
+      <c r="J4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -871,12 +889,13 @@
       <c r="H5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1">
+      <c r="I5" s="5"/>
+      <c r="J5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -899,12 +918,13 @@
       <c r="H6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="5"/>
+      <c r="J6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -927,12 +947,13 @@
       <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1">
+      <c r="I7" s="5"/>
+      <c r="J7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -955,12 +976,13 @@
       <c r="H8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1">
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -981,12 +1003,13 @@
         <v>36</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1">
+      <c r="I9" s="5"/>
+      <c r="J9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1007,12 +1030,13 @@
         <v>36</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1035,12 +1059,13 @@
       <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1">
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1063,12 +1088,13 @@
       <c r="H12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12" s="5"/>
+      <c r="J12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1091,12 +1117,13 @@
       <c r="H13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13" s="5"/>
+      <c r="J13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1119,12 +1146,13 @@
       <c r="H14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="I14" s="2"/>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1143,21 +1171,23 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" s="11" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="10" t="s">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="10" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>